--- a/Group_A_TaskRisk_log.xlsx
+++ b/Group_A_TaskRisk_log.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D210209-8AA0-4DE8-B198-98286DD2E35B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9978FEE-B9C0-40F3-A5C2-826C86613468}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="412" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -625,10 +625,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1345,8 +1345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1362,19 +1362,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="23" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
@@ -2038,10 +2038,10 @@
         <v>106</v>
       </c>
       <c r="D26" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="13" t="s">
         <v>31</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>24</v>
       </c>
       <c r="F26" s="20">
         <v>2</v>
@@ -2250,7 +2250,7 @@
       <c r="I35" s="14"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G36" s="26"/>
+      <c r="G36" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2281,7 +2281,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>

--- a/Group_A_TaskRisk_log.xlsx
+++ b/Group_A_TaskRisk_log.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9978FEE-B9C0-40F3-A5C2-826C86613468}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0665DECE-3D99-42DC-BB9A-8FC7AD63FBF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1345,8 +1345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2049,8 +2049,12 @@
       <c r="G26" s="14">
         <v>3</v>
       </c>
-      <c r="H26" s="13"/>
-      <c r="I26" s="14"/>
+      <c r="H26" s="13">
+        <v>2</v>
+      </c>
+      <c r="I26" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="11">

--- a/Group_A_TaskRisk_log.xlsx
+++ b/Group_A_TaskRisk_log.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D210209-8AA0-4DE8-B198-98286DD2E35B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190FE994-0ECF-4D47-BAE6-38D6CB970228}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="412" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -201,9 +201,6 @@
     <t>Programming difficulties (different skills in programming or less experience)</t>
   </si>
   <si>
-    <t>Last update: 28.04.2021</t>
-  </si>
-  <si>
     <t>A group member is getting ill or has to step back for longterm</t>
   </si>
   <si>
@@ -375,6 +372,9 @@
   </si>
   <si>
     <t>Being able to solve the export tasks</t>
+  </si>
+  <si>
+    <t>Last update: 24.05.2021</t>
   </si>
 </sst>
 </file>
@@ -563,7 +563,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -625,10 +625,19 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1019,8 +1028,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="A3:I33" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A3:I33" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="A3:I35" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A3:I35" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="#" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Task" dataDxfId="19"/>
@@ -1343,38 +1352,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="117" customWidth="1"/>
-    <col min="3" max="3" width="88.140625" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" customWidth="1"/>
+    <col min="2" max="2" width="121" customWidth="1"/>
+    <col min="3" max="3" width="83.140625" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.42578125" style="22" customWidth="1"/>
-    <col min="7" max="8" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.42578125" customWidth="1"/>
     <col min="11" max="11" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="25"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="29"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
@@ -1584,7 +1595,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>35</v>
@@ -1642,10 +1653,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>52</v>
@@ -1671,16 +1682,16 @@
         <v>10</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>34</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F13" s="20">
         <v>1</v>
@@ -1700,16 +1711,16 @@
         <v>11</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>34</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F14" s="20">
         <v>1</v>
@@ -1729,16 +1740,16 @@
         <v>12</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>34</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F15" s="20">
         <v>1</v>
@@ -1758,16 +1769,16 @@
         <v>13</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>31</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F16" s="20">
         <v>1</v>
@@ -1787,16 +1798,16 @@
         <v>14</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>24</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F17" s="20">
         <v>1</v>
@@ -1816,10 +1827,10 @@
         <v>15</v>
       </c>
       <c r="B18" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>85</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>86</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>31</v>
@@ -1845,16 +1856,16 @@
         <v>16</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>28</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F19" s="20">
         <v>1</v>
@@ -1874,16 +1885,16 @@
         <v>17</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>36</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F20" s="20">
         <v>1</v>
@@ -1903,10 +1914,10 @@
         <v>18</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>36</v>
@@ -1920,18 +1931,22 @@
       <c r="G21" s="14">
         <v>4</v>
       </c>
-      <c r="H21" s="13"/>
-      <c r="I21" s="14"/>
+      <c r="H21" s="13">
+        <v>2</v>
+      </c>
+      <c r="I21" s="14">
+        <v>10</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>19</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>24</v>
@@ -1957,10 +1972,10 @@
         <v>20</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>34</v>
@@ -1982,10 +1997,10 @@
         <v>21</v>
       </c>
       <c r="B24" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>103</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>104</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>36</v>
@@ -1999,18 +2014,22 @@
       <c r="G24" s="14">
         <v>2</v>
       </c>
-      <c r="H24" s="13"/>
-      <c r="I24" s="14"/>
+      <c r="H24" s="13">
+        <v>2</v>
+      </c>
+      <c r="I24" s="14">
+        <v>2</v>
+      </c>
     </row>
     <row r="25" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>22</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>31</v>
@@ -2032,10 +2051,10 @@
         <v>23</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D26" s="13" t="s">
         <v>31</v>
@@ -2057,10 +2076,10 @@
         <v>24</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D27" s="13" t="s">
         <v>28</v>
@@ -2082,10 +2101,10 @@
         <v>25</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D28" s="13" t="s">
         <v>28</v>
@@ -2107,10 +2126,10 @@
         <v>26</v>
       </c>
       <c r="B29" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="13" t="s">
         <v>112</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>113</v>
       </c>
       <c r="D29" s="13" t="s">
         <v>34</v>
@@ -2132,10 +2151,10 @@
         <v>27</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D30" s="15" t="s">
         <v>34</v>
@@ -2157,10 +2176,10 @@
         <v>28</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D31" s="15" t="s">
         <v>24</v>
@@ -2182,10 +2201,10 @@
         <v>29</v>
       </c>
       <c r="B32" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="13" t="s">
         <v>64</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>65</v>
       </c>
       <c r="D32" s="13" t="s">
         <v>31</v>
@@ -2207,10 +2226,10 @@
         <v>30</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D33" s="13" t="s">
         <v>36</v>
@@ -2228,7 +2247,9 @@
       <c r="I33" s="14"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
+      <c r="A34" s="11">
+        <v>31</v>
+      </c>
       <c r="B34" s="12"/>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -2239,18 +2260,23 @@
       <c r="I34" s="14"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="14"/>
+      <c r="A35" s="24">
+        <v>32</v>
+      </c>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="16"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G36" s="26"/>
+      <c r="G36" s="23"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I37" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2281,7 +2307,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
@@ -2404,10 +2430,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>28</v>
@@ -2419,10 +2445,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>52</v>
@@ -2434,10 +2460,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>52</v>

--- a/Group_A_TaskRisk_log.xlsx
+++ b/Group_A_TaskRisk_log.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190FE994-0ECF-4D47-BAE6-38D6CB970228}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05113CC4-06A6-9447-A888-FB78B8FCC05E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" tabRatio="412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="124">
   <si>
     <t>#</t>
   </si>
@@ -375,6 +375,36 @@
   </si>
   <si>
     <t>Last update: 24.05.2021</t>
+  </si>
+  <si>
+    <t>Data objects design</t>
+  </si>
+  <si>
+    <t>Label is like a node; display name, description &amp; personal data</t>
+  </si>
+  <si>
+    <t>Research for: traffic light signals</t>
+  </si>
+  <si>
+    <t>Gathering information about how GoJS saves data to use it for the traffic light</t>
+  </si>
+  <si>
+    <t>Research for: Fields of decription a bit longer, several lines visible</t>
+  </si>
+  <si>
+    <t>Change input filed to textarea</t>
+  </si>
+  <si>
+    <t>Error Research: Output diagram object</t>
+  </si>
+  <si>
+    <t>Diagramm data can be shown as JSON</t>
+  </si>
+  <si>
+    <t>Setting up database and connection to the app</t>
+  </si>
+  <si>
+    <t>Communication between app and database</t>
   </si>
 </sst>
 </file>
@@ -563,7 +593,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -625,15 +655,8 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1028,8 +1051,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="A3:I35" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A3:I35" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="A3:I38" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A3:I38" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="#" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Task" dataDxfId="19"/>
@@ -1352,42 +1375,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.140625" customWidth="1"/>
+    <col min="1" max="1" width="7.1640625" customWidth="1"/>
     <col min="2" max="2" width="121" customWidth="1"/>
-    <col min="3" max="3" width="83.140625" customWidth="1"/>
+    <col min="3" max="3" width="83.1640625" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" style="22" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5" style="22" customWidth="1"/>
+    <col min="7" max="7" width="19.5" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5" customWidth="1"/>
+    <col min="11" max="11" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="27" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="29"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
+    </row>
+    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>0</v>
       </c>
@@ -1416,7 +1439,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -1445,7 +1468,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -1474,7 +1497,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>3</v>
       </c>
@@ -1503,7 +1526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -1532,7 +1555,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>5</v>
       </c>
@@ -1561,7 +1584,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -1590,7 +1613,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>7</v>
       </c>
@@ -1619,7 +1642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -1648,7 +1671,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>9</v>
       </c>
@@ -1677,7 +1700,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>10</v>
       </c>
@@ -1706,7 +1729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>11</v>
       </c>
@@ -1735,7 +1758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>12</v>
       </c>
@@ -1764,7 +1787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>13</v>
       </c>
@@ -1793,7 +1816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>14</v>
       </c>
@@ -1822,7 +1845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>15</v>
       </c>
@@ -1851,7 +1874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>16</v>
       </c>
@@ -1880,7 +1903,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>17</v>
       </c>
@@ -1909,7 +1932,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <v>18</v>
       </c>
@@ -1925,7 +1948,7 @@
       <c r="E21" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="20">
+      <c r="F21" s="13">
         <v>2</v>
       </c>
       <c r="G21" s="14">
@@ -1935,80 +1958,84 @@
         <v>2</v>
       </c>
       <c r="I21" s="14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
         <v>19</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>91</v>
+      <c r="B22" s="12" t="s">
+        <v>114</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" s="20">
+        <v>52</v>
+      </c>
+      <c r="F22" s="13">
         <v>2</v>
       </c>
       <c r="G22" s="14">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H22" s="13">
         <v>2</v>
       </c>
       <c r="I22" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <v>20</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" s="20">
+        <v>28</v>
+      </c>
+      <c r="F23" s="13">
         <v>2</v>
       </c>
       <c r="G23" s="14">
-        <v>2</v>
-      </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="14"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H23" s="13">
+        <v>2</v>
+      </c>
+      <c r="I23" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
         <v>21</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" s="20">
+        <v>24</v>
+      </c>
+      <c r="F24" s="13">
         <v>2</v>
       </c>
       <c r="G24" s="14">
@@ -2021,262 +2048,395 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11">
         <v>22</v>
       </c>
-      <c r="B25" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>104</v>
+      <c r="B25" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>103</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" s="20">
+        <v>34</v>
+      </c>
+      <c r="F25" s="13">
         <v>2</v>
       </c>
       <c r="G25" s="14">
-        <v>5</v>
-      </c>
-      <c r="H25" s="13"/>
-      <c r="I25" s="14"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H25" s="13">
+        <v>2</v>
+      </c>
+      <c r="I25" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="11">
         <v>23</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="D26" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="20">
+      <c r="F26" s="13">
         <v>2</v>
       </c>
       <c r="G26" s="14">
         <v>3</v>
       </c>
-      <c r="H26" s="13"/>
-      <c r="I26" s="14"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H26" s="13">
+        <v>2</v>
+      </c>
+      <c r="I26" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="11">
         <v>24</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>106</v>
+      <c r="B27" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>104</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F27" s="20">
+        <v>24</v>
+      </c>
+      <c r="F27" s="13">
         <v>2</v>
       </c>
       <c r="G27" s="14">
-        <v>3</v>
-      </c>
-      <c r="H27" s="13"/>
-      <c r="I27" s="14"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="H27" s="13">
+        <v>2</v>
+      </c>
+      <c r="I27" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="11">
         <v>25</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E28" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="20">
+      <c r="F28" s="13">
         <v>2</v>
       </c>
       <c r="G28" s="14">
-        <v>4</v>
-      </c>
-      <c r="H28" s="13"/>
-      <c r="I28" s="14"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="H28" s="13">
+        <v>2</v>
+      </c>
+      <c r="I28" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="11">
         <v>26</v>
       </c>
-      <c r="B29" s="12" t="s">
-        <v>111</v>
+      <c r="B29" s="13" t="s">
+        <v>118</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D29" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F29" s="20">
+      <c r="F29" s="13">
         <v>2</v>
       </c>
       <c r="G29" s="14">
         <v>3</v>
       </c>
-      <c r="H29" s="13"/>
-      <c r="I29" s="14"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H29" s="13">
+        <v>2</v>
+      </c>
+      <c r="I29" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="11">
         <v>27</v>
       </c>
-      <c r="B30" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F30" s="20">
-        <v>2</v>
-      </c>
-      <c r="G30" s="16">
+      <c r="B30" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="13">
+        <v>2</v>
+      </c>
+      <c r="G30" s="14">
         <v>4</v>
       </c>
-      <c r="H30" s="15"/>
-      <c r="I30" s="16"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H30" s="13">
+        <v>2</v>
+      </c>
+      <c r="I30" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="11">
         <v>28</v>
       </c>
-      <c r="B31" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" s="15" t="s">
+      <c r="B31" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F31" s="20">
-        <v>2</v>
-      </c>
-      <c r="G31" s="16">
-        <v>4</v>
-      </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="16"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E31" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" s="13">
+        <v>2</v>
+      </c>
+      <c r="G31" s="14">
+        <v>6</v>
+      </c>
+      <c r="H31" s="13">
+        <v>2</v>
+      </c>
+      <c r="I31" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="11">
         <v>29</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="D32" s="13" t="s">
         <v>31</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F32" s="20">
+        <v>34</v>
+      </c>
+      <c r="F32" s="13">
+        <v>2</v>
+      </c>
+      <c r="G32" s="14">
         <v>3</v>
       </c>
-      <c r="G32" s="14">
-        <v>8</v>
-      </c>
-      <c r="H32" s="13"/>
-      <c r="I32" s="14"/>
-    </row>
-    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H32" s="13">
+        <v>2</v>
+      </c>
+      <c r="I32" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="11">
         <v>30</v>
       </c>
-      <c r="B33" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="D33" s="13" t="s">
+      <c r="B33" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E33" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F33" s="20">
-        <v>3</v>
-      </c>
-      <c r="G33" s="14">
-        <v>6</v>
-      </c>
-      <c r="H33" s="13"/>
-      <c r="I33" s="14"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F33" s="13">
+        <v>2</v>
+      </c>
+      <c r="G33" s="16">
+        <v>4</v>
+      </c>
+      <c r="H33" s="15">
+        <v>2</v>
+      </c>
+      <c r="I33" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="11">
         <v>31</v>
       </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="14"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="24">
+      <c r="B34" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" s="13">
+        <v>2</v>
+      </c>
+      <c r="G34" s="16">
+        <v>3</v>
+      </c>
+      <c r="H34" s="15">
+        <v>2</v>
+      </c>
+      <c r="I34" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="11">
         <v>32</v>
       </c>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="16"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G36" s="23"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I37" s="23"/>
+      <c r="B35" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" s="13">
+        <v>3</v>
+      </c>
+      <c r="G35" s="14">
+        <v>8</v>
+      </c>
+      <c r="H35" s="13"/>
+      <c r="I35" s="14"/>
+    </row>
+    <row r="36" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A36" s="11">
+        <v>33</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" s="13">
+        <v>3</v>
+      </c>
+      <c r="G36" s="14">
+        <v>6</v>
+      </c>
+      <c r="H36" s="13"/>
+      <c r="I36" s="14"/>
+    </row>
+    <row r="37" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="11">
+        <v>34</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F37" s="13">
+        <v>3</v>
+      </c>
+      <c r="G37" s="14">
+        <v>3</v>
+      </c>
+      <c r="H37" s="13"/>
+      <c r="I37" s="14"/>
+    </row>
+    <row r="38" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="11">
+        <v>35</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38" s="15">
+        <v>3</v>
+      </c>
+      <c r="G38" s="16">
+        <v>4</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2295,7 +2455,7 @@
           <x14:formula1>
             <xm:f>Param!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>H4:H35</xm:sqref>
+          <xm:sqref>H4:H20</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2311,14 +2471,14 @@
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="74" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="4" max="5" width="17.85546875" customWidth="1"/>
+    <col min="4" max="5" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2335,7 +2495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2350,7 +2510,7 @@
       </c>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2365,7 +2525,7 @@
       </c>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2380,7 +2540,7 @@
       </c>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2395,7 +2555,7 @@
       </c>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -2410,7 +2570,7 @@
       </c>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -2425,7 +2585,7 @@
       </c>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -2440,7 +2600,7 @@
       </c>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -2455,7 +2615,7 @@
       </c>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -2470,7 +2630,7 @@
       </c>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -2479,7 +2639,7 @@
       <c r="D11" s="6"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -2488,7 +2648,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -2497,7 +2657,7 @@
       <c r="D13" s="6"/>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -2506,7 +2666,7 @@
       <c r="D14" s="6"/>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -2515,7 +2675,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -2524,7 +2684,7 @@
       <c r="D16" s="6"/>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -2533,7 +2693,7 @@
       <c r="D17" s="6"/>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -2542,7 +2702,7 @@
       <c r="D18" s="6"/>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -2551,7 +2711,7 @@
       <c r="D19" s="6"/>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -2560,7 +2720,7 @@
       <c r="D20" s="6"/>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -2569,7 +2729,7 @@
       <c r="D21" s="6"/>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>21</v>
       </c>
@@ -2607,12 +2767,12 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -2623,7 +2783,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2634,7 +2794,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2645,7 +2805,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2656,7 +2816,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>

--- a/Group_A_TaskRisk_log.xlsx
+++ b/Group_A_TaskRisk_log.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05113CC4-06A6-9447-A888-FB78B8FCC05E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6052FD20-A1AD-0F40-B5F5-30601C55B2C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" tabRatio="412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-80" yWindow="500" windowWidth="38400" windowHeight="19920" tabRatio="412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="128">
   <si>
     <t>#</t>
   </si>
@@ -405,6 +405,18 @@
   </si>
   <si>
     <t>Communication between app and database</t>
+  </si>
+  <si>
+    <t>Rename the Status to COTS Label</t>
+  </si>
+  <si>
+    <t>Make Data Object reusable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reusing an existing Data Object, attached to different line </t>
+  </si>
+  <si>
+    <t>Refactoring the Code</t>
   </si>
 </sst>
 </file>
@@ -593,7 +605,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -661,6 +673,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1051,8 +1069,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="A3:I38" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A3:I38" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="A3:I41" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A3:I41" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="#" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Task" dataDxfId="19"/>
@@ -1375,10 +1393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2437,6 +2455,57 @@
       </c>
       <c r="H38" s="15"/>
       <c r="I38" s="16"/>
+    </row>
+    <row r="39" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="27">
+        <v>36</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="28">
+        <v>3</v>
+      </c>
+      <c r="G39" s="16"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="16"/>
+    </row>
+    <row r="40" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="27">
+        <v>37</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="28">
+        <v>3</v>
+      </c>
+      <c r="G40" s="16"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="16"/>
+    </row>
+    <row r="41" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="27">
+        <v>38</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Group_A_TaskRisk_log.xlsx
+++ b/Group_A_TaskRisk_log.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6052FD20-A1AD-0F40-B5F5-30601C55B2C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16F0AA0-C1E6-42E4-B8B5-F4B1EF2BA9B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="500" windowWidth="38400" windowHeight="19920" tabRatio="412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="130">
   <si>
     <t>#</t>
   </si>
@@ -417,6 +417,12 @@
   </si>
   <si>
     <t>Refactoring the Code</t>
+  </si>
+  <si>
+    <t>Changing visual text from status to COTS</t>
+  </si>
+  <si>
+    <t>Implenting new features</t>
   </si>
 </sst>
 </file>
@@ -670,15 +676,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1395,40 +1401,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" customWidth="1"/>
     <col min="2" max="2" width="121" customWidth="1"/>
-    <col min="3" max="3" width="83.1640625" customWidth="1"/>
+    <col min="3" max="3" width="83.140625" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5" style="22" customWidth="1"/>
-    <col min="7" max="7" width="19.5" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5" customWidth="1"/>
-    <col min="11" max="11" width="16.83203125" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="22" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="24" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
-    </row>
-    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="28"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>0</v>
       </c>
@@ -1457,7 +1463,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -1486,7 +1492,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -1515,7 +1521,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>3</v>
       </c>
@@ -1544,7 +1550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -1573,7 +1579,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>5</v>
       </c>
@@ -1602,7 +1608,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -1631,7 +1637,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>7</v>
       </c>
@@ -1660,7 +1666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -1689,7 +1695,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>9</v>
       </c>
@@ -1718,7 +1724,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>10</v>
       </c>
@@ -1747,7 +1753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>11</v>
       </c>
@@ -1776,7 +1782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>12</v>
       </c>
@@ -1805,7 +1811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>13</v>
       </c>
@@ -1834,7 +1840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>14</v>
       </c>
@@ -1863,7 +1869,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>15</v>
       </c>
@@ -1892,7 +1898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>16</v>
       </c>
@@ -1921,7 +1927,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>17</v>
       </c>
@@ -1950,7 +1956,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>18</v>
       </c>
@@ -1979,7 +1985,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>19</v>
       </c>
@@ -2008,7 +2014,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>20</v>
       </c>
@@ -2037,7 +2043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>21</v>
       </c>
@@ -2066,7 +2072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>22</v>
       </c>
@@ -2095,7 +2101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>23</v>
       </c>
@@ -2124,7 +2130,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>24</v>
       </c>
@@ -2153,7 +2159,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>25</v>
       </c>
@@ -2182,7 +2188,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>26</v>
       </c>
@@ -2211,7 +2217,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>27</v>
       </c>
@@ -2240,7 +2246,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>28</v>
       </c>
@@ -2269,7 +2275,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>29</v>
       </c>
@@ -2298,7 +2304,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>30</v>
       </c>
@@ -2327,7 +2333,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>31</v>
       </c>
@@ -2356,7 +2362,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>32</v>
       </c>
@@ -2381,7 +2387,7 @@
       <c r="H35" s="13"/>
       <c r="I35" s="14"/>
     </row>
-    <row r="36" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>33</v>
       </c>
@@ -2406,7 +2412,7 @@
       <c r="H36" s="13"/>
       <c r="I36" s="14"/>
     </row>
-    <row r="37" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <v>34</v>
       </c>
@@ -2431,7 +2437,7 @@
       <c r="H37" s="13"/>
       <c r="I37" s="14"/>
     </row>
-    <row r="38" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>35</v>
       </c>
@@ -2456,25 +2462,37 @@
       <c r="H38" s="15"/>
       <c r="I38" s="16"/>
     </row>
-    <row r="39" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="27">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="24">
         <v>36</v>
       </c>
       <c r="B39" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="28">
+      <c r="C39" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39" s="25">
         <v>3</v>
       </c>
-      <c r="G39" s="16"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="16"/>
-    </row>
-    <row r="40" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="27">
+      <c r="G39" s="16">
+        <v>1</v>
+      </c>
+      <c r="H39" s="15">
+        <v>3</v>
+      </c>
+      <c r="I39" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="24">
         <v>37</v>
       </c>
       <c r="B40" s="23" t="s">
@@ -2483,27 +2501,43 @@
       <c r="C40" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="28">
+      <c r="D40" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F40" s="25">
         <v>3</v>
       </c>
-      <c r="G40" s="16"/>
+      <c r="G40" s="16">
+        <v>8</v>
+      </c>
       <c r="H40" s="15"/>
       <c r="I40" s="16"/>
     </row>
-    <row r="41" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="27">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="24">
         <v>38</v>
       </c>
       <c r="B41" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="16"/>
+      <c r="C41" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F41" s="25">
+        <v>3</v>
+      </c>
+      <c r="G41" s="16">
+        <v>20</v>
+      </c>
       <c r="H41" s="15"/>
       <c r="I41" s="16"/>
     </row>
@@ -2540,14 +2574,14 @@
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="74" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="4" max="5" width="17.83203125" customWidth="1"/>
+    <col min="4" max="5" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2564,7 +2598,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2579,7 +2613,7 @@
       </c>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2594,7 +2628,7 @@
       </c>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2609,7 +2643,7 @@
       </c>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2624,7 +2658,7 @@
       </c>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -2639,7 +2673,7 @@
       </c>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -2654,7 +2688,7 @@
       </c>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -2669,7 +2703,7 @@
       </c>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -2684,7 +2718,7 @@
       </c>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -2699,7 +2733,7 @@
       </c>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -2708,7 +2742,7 @@
       <c r="D11" s="6"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -2717,7 +2751,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -2726,7 +2760,7 @@
       <c r="D13" s="6"/>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -2735,7 +2769,7 @@
       <c r="D14" s="6"/>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -2744,7 +2778,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -2753,7 +2787,7 @@
       <c r="D16" s="6"/>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -2762,7 +2796,7 @@
       <c r="D17" s="6"/>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -2771,7 +2805,7 @@
       <c r="D18" s="6"/>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -2780,7 +2814,7 @@
       <c r="D19" s="6"/>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -2789,7 +2823,7 @@
       <c r="D20" s="6"/>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -2798,7 +2832,7 @@
       <c r="D21" s="6"/>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>21</v>
       </c>
@@ -2836,12 +2870,12 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -2852,7 +2886,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2863,7 +2897,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2874,7 +2908,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2885,7 +2919,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>

--- a/Group_A_TaskRisk_log.xlsx
+++ b/Group_A_TaskRisk_log.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16F0AA0-C1E6-42E4-B8B5-F4B1EF2BA9B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367EC18C-CDFC-42B4-9390-D915C22D9D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="143">
   <si>
     <t>#</t>
   </si>
@@ -423,6 +423,45 @@
   </si>
   <si>
     <t>Implenting new features</t>
+  </si>
+  <si>
+    <t>Generating a MVC Skeleton</t>
+  </si>
+  <si>
+    <t>Create routes and controllers</t>
+  </si>
+  <si>
+    <t>Create models for our diagram</t>
+  </si>
+  <si>
+    <t>Integrate our GoJS code to the new environment</t>
+  </si>
+  <si>
+    <t>Testing communication with MongoDB</t>
+  </si>
+  <si>
+    <t>Diagrams can be loaded and saved in the Database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create view </t>
+  </si>
+  <si>
+    <t>Research for MVC-Pattern in NodeJs</t>
+  </si>
+  <si>
+    <t>Using a Module for MVC Pattern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MVC folder hierarchy </t>
+  </si>
+  <si>
+    <t>Code before refactoring works in new Pattern</t>
+  </si>
+  <si>
+    <t>Diagram generates objects in our models</t>
+  </si>
+  <si>
+    <t>URL-handling Code</t>
   </si>
 </sst>
 </file>
@@ -611,7 +650,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -685,6 +724,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1075,8 +1120,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="A3:I41" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A3:I41" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="A3:I46" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A3:I46" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="#" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Task" dataDxfId="19"/>
@@ -1399,27 +1444,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.140625" customWidth="1"/>
+    <col min="1" max="1" width="7.109375" customWidth="1"/>
     <col min="2" max="2" width="121" customWidth="1"/>
-    <col min="3" max="3" width="83.140625" customWidth="1"/>
+    <col min="3" max="3" width="83.109375" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" style="22" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" style="22" customWidth="1"/>
+    <col min="7" max="7" width="19.44140625" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" customWidth="1"/>
+    <col min="11" max="11" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
         <v>21</v>
       </c>
@@ -1434,7 +1479,7 @@
       <c r="H1" s="27"/>
       <c r="I1" s="28"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>0</v>
       </c>
@@ -1463,7 +1508,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -1492,7 +1537,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -1521,7 +1566,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>3</v>
       </c>
@@ -1550,7 +1595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -1579,7 +1624,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>5</v>
       </c>
@@ -1608,7 +1653,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -1637,7 +1682,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>7</v>
       </c>
@@ -1666,7 +1711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -1695,7 +1740,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>9</v>
       </c>
@@ -1724,7 +1769,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>10</v>
       </c>
@@ -1753,7 +1798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>11</v>
       </c>
@@ -1782,7 +1827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>12</v>
       </c>
@@ -1811,7 +1856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>13</v>
       </c>
@@ -1840,7 +1885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>14</v>
       </c>
@@ -1869,7 +1914,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>15</v>
       </c>
@@ -1898,7 +1943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
         <v>16</v>
       </c>
@@ -1927,7 +1972,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>17</v>
       </c>
@@ -1956,7 +2001,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
         <v>18</v>
       </c>
@@ -1985,7 +2030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
         <v>19</v>
       </c>
@@ -2014,7 +2059,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="11">
         <v>20</v>
       </c>
@@ -2043,7 +2088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="11">
         <v>21</v>
       </c>
@@ -2072,7 +2117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11">
         <v>22</v>
       </c>
@@ -2101,7 +2146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="11">
         <v>23</v>
       </c>
@@ -2130,7 +2175,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
         <v>24</v>
       </c>
@@ -2159,7 +2204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
         <v>25</v>
       </c>
@@ -2188,7 +2233,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
         <v>26</v>
       </c>
@@ -2217,7 +2262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
         <v>27</v>
       </c>
@@ -2246,7 +2291,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="11">
         <v>28</v>
       </c>
@@ -2275,7 +2320,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="11">
         <v>29</v>
       </c>
@@ -2304,7 +2349,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="11">
         <v>30</v>
       </c>
@@ -2333,7 +2378,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="11">
         <v>31</v>
       </c>
@@ -2362,7 +2407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="11">
         <v>32</v>
       </c>
@@ -2387,159 +2432,262 @@
       <c r="H35" s="13"/>
       <c r="I35" s="14"/>
     </row>
-    <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>108</v>
+        <v>95</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>106</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F36" s="13">
         <v>3</v>
       </c>
       <c r="G36" s="14">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H36" s="13"/>
       <c r="I36" s="14"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="11">
+        <v>35</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="D37" s="13" t="s">
+      <c r="F37" s="15">
+        <v>3</v>
+      </c>
+      <c r="G37" s="16">
+        <v>4</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="16"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="24">
+        <v>36</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E37" s="13" t="s">
+      <c r="F38" s="25">
+        <v>3</v>
+      </c>
+      <c r="G38" s="16">
+        <v>1</v>
+      </c>
+      <c r="H38" s="15">
+        <v>3</v>
+      </c>
+      <c r="I38" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="24">
+        <v>38</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="D39" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F37" s="13">
-        <v>3</v>
-      </c>
-      <c r="G37" s="14">
-        <v>3</v>
-      </c>
-      <c r="H37" s="13"/>
-      <c r="I37" s="14"/>
-    </row>
-    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="11">
-        <v>35</v>
-      </c>
-      <c r="B38" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C38" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F38" s="15">
-        <v>3</v>
-      </c>
-      <c r="G38" s="16">
-        <v>4</v>
-      </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="16"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="24">
-        <v>36</v>
-      </c>
-      <c r="B39" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="D39" s="15" t="s">
+      <c r="E39" s="15" t="s">
         <v>31</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>28</v>
       </c>
       <c r="F39" s="25">
         <v>3</v>
       </c>
       <c r="G39" s="16">
-        <v>1</v>
-      </c>
-      <c r="H39" s="15">
-        <v>3</v>
-      </c>
-      <c r="I39" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="24">
-        <v>37</v>
-      </c>
-      <c r="B40" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F40" s="25">
-        <v>3</v>
-      </c>
-      <c r="G40" s="16">
-        <v>8</v>
-      </c>
-      <c r="H40" s="15"/>
-      <c r="I40" s="16"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="24">
-        <v>38</v>
-      </c>
-      <c r="B41" s="23" t="s">
-        <v>127</v>
+        <v>20</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="16"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="11"/>
+      <c r="B40" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="14"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="24"/>
+      <c r="B41" s="30" t="s">
+        <v>130</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="D41" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F41" s="25">
-        <v>3</v>
-      </c>
-      <c r="G41" s="16">
-        <v>20</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="16"/>
       <c r="H41" s="15"/>
       <c r="I41" s="16"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="24"/>
+      <c r="B42" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="16"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="24"/>
+      <c r="B43" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="16"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="11"/>
+      <c r="B44" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="14"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="24"/>
+      <c r="B45" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="16"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="24"/>
+      <c r="B46" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="16"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="24">
+        <v>37</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F47" s="25">
+        <v>3</v>
+      </c>
+      <c r="G47" s="16">
+        <v>8</v>
+      </c>
+      <c r="H47" s="15"/>
+      <c r="I47" s="16"/>
+    </row>
+    <row r="48" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="11">
+        <v>33</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F48" s="13">
+        <v>3</v>
+      </c>
+      <c r="G48" s="14">
+        <v>6</v>
+      </c>
+      <c r="H48" s="13"/>
+      <c r="I48" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2574,14 +2722,14 @@
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="74" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="4" max="5" width="17.85546875" customWidth="1"/>
+    <col min="4" max="5" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2598,7 +2746,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2613,7 +2761,7 @@
       </c>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2628,7 +2776,7 @@
       </c>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2643,7 +2791,7 @@
       </c>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2658,7 +2806,7 @@
       </c>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -2673,7 +2821,7 @@
       </c>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -2688,7 +2836,7 @@
       </c>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -2703,7 +2851,7 @@
       </c>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -2718,7 +2866,7 @@
       </c>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -2733,7 +2881,7 @@
       </c>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -2742,7 +2890,7 @@
       <c r="D11" s="6"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -2751,7 +2899,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -2760,7 +2908,7 @@
       <c r="D13" s="6"/>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -2769,7 +2917,7 @@
       <c r="D14" s="6"/>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -2778,7 +2926,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -2787,7 +2935,7 @@
       <c r="D16" s="6"/>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -2796,7 +2944,7 @@
       <c r="D17" s="6"/>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -2805,7 +2953,7 @@
       <c r="D18" s="6"/>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -2814,7 +2962,7 @@
       <c r="D19" s="6"/>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -2823,7 +2971,7 @@
       <c r="D20" s="6"/>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -2832,7 +2980,7 @@
       <c r="D21" s="6"/>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>21</v>
       </c>
@@ -2870,12 +3018,12 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -2886,7 +3034,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2897,7 +3045,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2908,7 +3056,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2919,7 +3067,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
